--- a/NEW HR/GONZALES, MARY JANE.xlsx
+++ b/NEW HR/GONZALES, MARY JANE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1550,7 +1550,7 @@
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78:C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,7 +1720,7 @@
       <c r="D9" s="13"/>
       <c r="E9" s="15">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>51.25</v>
+        <v>53.75</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="15" t="str">
@@ -1730,7 +1730,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="15">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>76.25</v>
+        <v>78.75</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="22"/>
@@ -3135,15 +3135,19 @@
       <c r="K78" s="22"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="48"/>
+      <c r="A79" s="48">
+        <v>44958</v>
+      </c>
       <c r="B79" s="22"/>
-      <c r="C79" s="15"/>
+      <c r="C79" s="15">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="49"/>
       <c r="E79" s="10"/>
       <c r="F79" s="22"/>
-      <c r="G79" s="15" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="15">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="49"/>
       <c r="I79" s="10"/>
@@ -3151,15 +3155,19 @@
       <c r="K79" s="22"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="48"/>
+      <c r="A80" s="48">
+        <v>44986</v>
+      </c>
       <c r="B80" s="22"/>
-      <c r="C80" s="15"/>
+      <c r="C80" s="15">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="49"/>
       <c r="E80" s="10"/>
       <c r="F80" s="22"/>
-      <c r="G80" s="15" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="15">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="49"/>
       <c r="I80" s="10"/>
@@ -3246,9 +3254,9 @@
   <dimension ref="A2:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A18" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A27" activePane="bottomLeft"/>
       <selection activeCell="K6" sqref="K6"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3428,7 +3436,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="15">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>36.479999999999997</v>
+        <v>35.479999999999997</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="22"/>
@@ -4052,8 +4060,12 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="13"/>
+      <c r="A41" s="25">
+        <v>44986</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="C41" s="15"/>
       <c r="D41" s="13"/>
       <c r="E41" s="10"/>
@@ -4062,10 +4074,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H41" s="13"/>
+      <c r="H41" s="13">
+        <v>1</v>
+      </c>
       <c r="I41" s="10"/>
       <c r="J41" s="13"/>
-      <c r="K41" s="22"/>
+      <c r="K41" s="41">
+        <v>44995</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
@@ -4405,17 +4421,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">

--- a/NEW HR/GONZALES, MARY JANE.xlsx
+++ b/NEW HR/GONZALES, MARY JANE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997E08A6-19A8-4A2A-A0F1-04FC084EB05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="1" r:id="rId1"/>
@@ -26,25 +27,17 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -268,7 +261,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -488,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -498,9 +491,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -559,7 +549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -571,10 +561,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -583,13 +573,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -625,9 +612,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1186,25 +1170,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K82" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K90" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1216,25 +1200,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K62" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K62" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1541,146 +1525,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K82"/>
+  <dimension ref="A2:K90"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="C78" sqref="C78:C80"/>
+      <selection pane="bottomLeft" activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="34" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="30" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="24" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="28" t="s">
+      <c r="F3" s="54"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="I3" s="27"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="24" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="28" t="s">
+      <c r="G4" s="49"/>
+      <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="29" t="s">
+      <c r="I4" s="27"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="H5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="21"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="50" t="s">
+      <c r="I5" s="28"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="20"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="16"/>
-    </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1707,1504 +1682,1656 @@
       <c r="J8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="15">
+      <c r="C9" s="14"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
         <v>53.75</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="15" t="str">
+      <c r="F9" s="12"/>
+      <c r="G9" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="15">
+      <c r="H9" s="12"/>
+      <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
         <v>78.75</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="22"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="J9" s="12"/>
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="22"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
+      <c r="B10" s="12"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="24">
         <v>43101</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="21"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
         <v>43132</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="41"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="39"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="24">
         <v>43160</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="22"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="24">
         <v>43191</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="22"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="21"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="24">
         <v>43221</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="22"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+      <c r="B15" s="12"/>
+      <c r="C15" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="24">
         <v>43252</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="41"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="39"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="24">
         <v>43282</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="41"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="39"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="24">
         <v>43313</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="22"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="21"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="24">
         <v>43344</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="22"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="21"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="24">
         <v>43374</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="22"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="24">
         <v>43405</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="22"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="21"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="24">
         <v>43435</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D22" s="13">
+      <c r="C22" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D22" s="12">
         <v>5</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="22"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+      <c r="E22" s="9"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="21"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15" t="str">
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="17"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
+      <c r="H23" s="13"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="16"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="24">
         <v>43466</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="17"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="25">
+      <c r="B24" s="13"/>
+      <c r="C24" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="16"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="24">
         <v>43497</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="22"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
+      <c r="B25" s="12"/>
+      <c r="C25" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="21"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="24">
         <v>43525</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="22"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="21"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="24">
         <v>43556</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="22"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="25">
+      <c r="B27" s="12"/>
+      <c r="C27" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="21"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="24">
         <v>43586</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="41"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="25">
+      <c r="B28" s="12"/>
+      <c r="C28" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="39"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="24">
         <v>43617</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="22"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
+      <c r="B29" s="12"/>
+      <c r="C29" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="21"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="24">
         <v>43647</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="22"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="25">
+      <c r="B30" s="12"/>
+      <c r="C30" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="21"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="24">
         <v>43678</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="22"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="25">
+      <c r="B31" s="12"/>
+      <c r="C31" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="21"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="24">
         <v>43709</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="22"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="25">
+      <c r="B32" s="12"/>
+      <c r="C32" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="21"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="24">
         <v>43739</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="22"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="25">
+      <c r="B33" s="12"/>
+      <c r="C33" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H33" s="12"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="21"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="24">
         <v>43770</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="22"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="25">
+      <c r="B34" s="12"/>
+      <c r="C34" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="21"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="24">
         <v>43800</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D35" s="13">
+      <c r="C35" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D35" s="12">
         <v>1</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="41">
+      <c r="E35" s="9"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H35" s="12"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="39">
         <v>43802</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="13" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="24"/>
+      <c r="B36" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="13">
+      <c r="C36" s="14"/>
+      <c r="D36" s="12">
         <v>4</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="15" t="str">
+      <c r="E36" s="9"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="22" t="s">
+      <c r="H36" s="12"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="40" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="15" t="str">
+      <c r="B37" s="12"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H37" s="13"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="22"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="25">
+      <c r="H37" s="12"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="21"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="24">
         <v>43831</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H38" s="13"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="22"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="25">
+      <c r="B38" s="12"/>
+      <c r="C38" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H38" s="12"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="21"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="24">
         <v>43862</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H39" s="13"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="22"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="25">
+      <c r="B39" s="12"/>
+      <c r="C39" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H39" s="12"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="21"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="24">
         <v>43891</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H40" s="13"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="22"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="25">
+      <c r="B40" s="12"/>
+      <c r="C40" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H40" s="12"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="21"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="24">
         <v>43922</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H41" s="13"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="22"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="25">
+      <c r="B41" s="12"/>
+      <c r="C41" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H41" s="12"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="21"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="24">
         <v>43952</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="22"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="25">
+      <c r="B42" s="12"/>
+      <c r="C42" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H42" s="12"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="21"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="24">
         <v>43983</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H43" s="13"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="22"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="25">
+      <c r="B43" s="12"/>
+      <c r="C43" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="21"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="24">
         <v>44013</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H44" s="13"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="22"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="25">
+      <c r="B44" s="12"/>
+      <c r="C44" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H44" s="12"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="21"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="24">
         <v>44044</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H45" s="13"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="22"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="25">
+      <c r="B45" s="12"/>
+      <c r="C45" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D45" s="12"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H45" s="12"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="21"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="24">
         <v>44075</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H46" s="13"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="22"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="25">
+      <c r="B46" s="12"/>
+      <c r="C46" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H46" s="12"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="21"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="24">
         <v>44105</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="22"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="25">
+      <c r="B47" s="12"/>
+      <c r="C47" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D47" s="12"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H47" s="12"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="21"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="24">
         <v>44136</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H48" s="13"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="22"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="25">
+      <c r="B48" s="12"/>
+      <c r="C48" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H48" s="12"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="21"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="24">
         <v>44166</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D49" s="13">
+      <c r="C49" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D49" s="12">
         <v>5</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H49" s="13"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="22"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="40" t="s">
+      <c r="E49" s="9"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H49" s="12"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="21"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="15" t="str">
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H50" s="14"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="17"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="25">
+      <c r="H50" s="13"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="16"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="24">
         <v>44197</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H51" s="14"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="17"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="25">
+      <c r="B51" s="13"/>
+      <c r="C51" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D51" s="13"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H51" s="13"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="16"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="24">
         <v>44228</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="22"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="25">
+      <c r="B52" s="13"/>
+      <c r="C52" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H52" s="12"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="21"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="24">
         <v>44256</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H53" s="13"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="22"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="25">
+      <c r="B53" s="13"/>
+      <c r="C53" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H53" s="12"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="21"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="24">
         <v>44287</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H54" s="13"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="22"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="25">
+      <c r="B54" s="13"/>
+      <c r="C54" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H54" s="12"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="21"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="24">
         <v>44317</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D55" s="14"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H55" s="13"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="22"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="25">
+      <c r="B55" s="13"/>
+      <c r="C55" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D55" s="13"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H55" s="12"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="21"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="24">
         <v>44348</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D56" s="14"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H56" s="13"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="22"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="25">
+      <c r="B56" s="13"/>
+      <c r="C56" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D56" s="13"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H56" s="12"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="21"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="24">
         <v>44378</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H57" s="13"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="22"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="25">
+      <c r="B57" s="13"/>
+      <c r="C57" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D57" s="13"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H57" s="12"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="21"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="24">
         <v>44409</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D58" s="14"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H58" s="13"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="22"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="25">
+      <c r="B58" s="13"/>
+      <c r="C58" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D58" s="13"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H58" s="12"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="21"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="24">
         <v>44440</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D59" s="14"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H59" s="13"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="22"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="25">
+      <c r="B59" s="13"/>
+      <c r="C59" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H59" s="12"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="21"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="24">
         <v>44470</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D60" s="14"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H60" s="13"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="22"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="25">
+      <c r="B60" s="13"/>
+      <c r="C60" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D60" s="13"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H60" s="12"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="21"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="24">
         <v>44501</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D61" s="14"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H61" s="13"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="22"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="25">
+      <c r="B61" s="13"/>
+      <c r="C61" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D61" s="13"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H61" s="12"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="21"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="24">
         <v>44531</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D62" s="14">
+      <c r="C62" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D62" s="13">
         <v>5</v>
       </c>
-      <c r="E62" s="11"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H62" s="14"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="17"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="40" t="s">
+      <c r="E62" s="10"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H62" s="13"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="16"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="15" t="str">
+      <c r="B63" s="12"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H63" s="13"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="22"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="25">
+      <c r="H63" s="12"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="21"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="24">
         <v>44562</v>
       </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D64" s="13"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H64" s="13"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="22"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="25">
+      <c r="B64" s="12"/>
+      <c r="C64" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D64" s="12"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H64" s="12"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="21"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="24">
         <v>44593</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D65" s="13"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H65" s="13"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="41"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="25">
+      <c r="B65" s="12"/>
+      <c r="C65" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D65" s="12"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H65" s="12"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="39"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="24">
         <v>44621</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C66" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D66" s="13">
+      <c r="C66" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D66" s="12">
         <v>1</v>
       </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H66" s="13"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="41">
+      <c r="E66" s="9"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H66" s="12"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="39">
         <v>44631</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="24">
         <v>44652</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D67" s="13"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H67" s="13"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="22"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="25">
+      <c r="B67" s="12"/>
+      <c r="C67" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D67" s="12"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H67" s="12"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="21"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="24">
         <v>44682</v>
       </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D68" s="13"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H68" s="13"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="22"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="25">
+      <c r="B68" s="12"/>
+      <c r="C68" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D68" s="12"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H68" s="12"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="21"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="24">
         <v>44713</v>
       </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D69" s="13"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H69" s="13"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="22"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="25">
+      <c r="B69" s="12"/>
+      <c r="C69" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D69" s="12"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H69" s="12"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="21"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="24">
         <v>44743</v>
       </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D70" s="13"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H70" s="13"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="22"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="25">
+      <c r="B70" s="12"/>
+      <c r="C70" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D70" s="12"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H70" s="12"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="21"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="24">
         <v>44774</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D71" s="14"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H71" s="14"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="17"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="25">
+      <c r="B71" s="13"/>
+      <c r="C71" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D71" s="13"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H71" s="13"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="16"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="24">
         <v>44805</v>
       </c>
-      <c r="B72" s="13"/>
-      <c r="C72" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D72" s="13"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H72" s="13"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="22"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="25">
+      <c r="B72" s="12"/>
+      <c r="C72" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D72" s="12"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H72" s="12"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="21"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="24">
         <v>44835</v>
       </c>
-      <c r="B73" s="13"/>
-      <c r="C73" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H73" s="13"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="22"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="25">
+      <c r="B73" s="12"/>
+      <c r="C73" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D73" s="12"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H73" s="12"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="21"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="24">
         <v>44866</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C74" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D74" s="13">
+      <c r="C74" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D74" s="12">
         <v>1</v>
       </c>
-      <c r="E74" s="10"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H74" s="13"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="41">
+      <c r="E74" s="9"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H74" s="12"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="39">
         <v>44891</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="25"/>
-      <c r="B75" s="13" t="s">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="24"/>
+      <c r="B75" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C75" s="15"/>
-      <c r="D75" s="13">
+      <c r="C75" s="14"/>
+      <c r="D75" s="12">
         <v>3</v>
       </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="15" t="str">
+      <c r="E75" s="9"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H75" s="13"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="22" t="s">
+      <c r="H75" s="12"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="24">
         <v>44896</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D76" s="13"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H76" s="13"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="22"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40" t="s">
+      <c r="B76" s="12"/>
+      <c r="C76" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D76" s="12"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H76" s="12"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="21"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="15" t="str">
+      <c r="B77" s="12"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H77" s="13"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="22"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="25">
+      <c r="H77" s="12"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="21"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="24">
         <v>44927</v>
       </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D78" s="13"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H78" s="13"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="22"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="48">
+      <c r="B78" s="12"/>
+      <c r="C78" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D78" s="12"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H78" s="12"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="21"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="45">
         <v>44958</v>
       </c>
-      <c r="B79" s="22"/>
-      <c r="C79" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D79" s="49"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H79" s="49"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="22"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="48">
+      <c r="B79" s="21"/>
+      <c r="C79" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D79" s="46"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H79" s="46"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="21"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="45">
         <v>44986</v>
       </c>
-      <c r="B80" s="22"/>
-      <c r="C80" s="15">
-        <v>1.25</v>
-      </c>
-      <c r="D80" s="49"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="15">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H80" s="49"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="22"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="48"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="49"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="15" t="str">
+      <c r="B80" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D80" s="46"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H80" s="46"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="39">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="45">
+        <v>45017</v>
+      </c>
+      <c r="B81" s="21"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H81" s="49"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="22"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="48"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="49"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="15" t="str">
+      <c r="H81" s="46"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="21"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="45">
+        <v>45047</v>
+      </c>
+      <c r="B82" s="21"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H82" s="49"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="13"/>
-      <c r="K82" s="22"/>
+      <c r="H82" s="46"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="21"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="45">
+        <v>45078</v>
+      </c>
+      <c r="B83" s="21"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H83" s="46"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="21"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="45">
+        <v>45108</v>
+      </c>
+      <c r="B84" s="21"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H84" s="46"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="21"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="45">
+        <v>45139</v>
+      </c>
+      <c r="B85" s="21"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H85" s="46"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="21"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="45">
+        <v>45170</v>
+      </c>
+      <c r="B86" s="21"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H86" s="46"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="21"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="45">
+        <v>45200</v>
+      </c>
+      <c r="B87" s="21"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="46"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H87" s="46"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="21"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="45">
+        <v>45231</v>
+      </c>
+      <c r="B88" s="21"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="46"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H88" s="46"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="21"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="45">
+        <v>45261</v>
+      </c>
+      <c r="B89" s="21"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="46"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H89" s="46"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="21"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="45">
+        <v>45292</v>
+      </c>
+      <c r="B90" s="21"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H90" s="46"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3221,10 +3348,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3247,146 +3374,137 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A27" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A37" activePane="bottomLeft"/>
       <selection activeCell="K6" sqref="K6"/>
       <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="34" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="30" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="24" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="28" t="s">
+      <c r="F3" s="54"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="I3" s="27"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="24" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="28" t="s">
+      <c r="G4" s="49"/>
+      <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="29" t="s">
+      <c r="I4" s="27"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="H5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="21"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="50" t="s">
+      <c r="I5" s="28"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="20"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="16"/>
-    </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3413,1031 +3531,1031 @@
       <c r="J8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="15">
+      <c r="C9" s="14"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
         <v>68.554000000000002</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="15" t="str">
+      <c r="F9" s="12"/>
+      <c r="G9" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="15">
+      <c r="H9" s="12"/>
+      <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
         <v>35.479999999999997</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="22"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="J9" s="12"/>
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="22"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
+      <c r="B10" s="12"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="24">
         <v>43101</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="13">
+      <c r="C11" s="14"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="12">
         <v>1</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="41">
+      <c r="I11" s="9"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="39">
         <v>43108</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
         <v>43132</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="13">
+      <c r="C12" s="14"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="12">
         <v>1</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="41">
+      <c r="I12" s="9"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="39">
         <v>43143</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="24">
         <v>43221</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="13">
+      <c r="C13" s="14"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="12">
         <v>1</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="41">
+      <c r="I13" s="9"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="39">
         <v>43228</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="13" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
+      <c r="B14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="13">
+      <c r="C14" s="14"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="12">
         <v>1</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="41">
+      <c r="I14" s="9"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="39">
         <v>43235</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="13" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
+      <c r="B15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="13">
+      <c r="C15" s="14"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="12">
         <v>1</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="41">
+      <c r="I15" s="9"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="39">
         <v>43250</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="24">
         <v>43252</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="13">
+      <c r="C16" s="14"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="12">
         <v>2</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="41" t="s">
+      <c r="I16" s="9"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="39" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="24">
         <v>43282</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="13">
+      <c r="C17" s="14"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="12">
         <v>1</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="41">
+      <c r="I17" s="9"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="39">
         <v>43290</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="13" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="13">
+      <c r="C18" s="14"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="12">
         <v>1</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="41">
+      <c r="I18" s="9"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="39">
         <v>43299</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="13" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="13">
+      <c r="C19" s="14"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="12">
         <v>1</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="41">
+      <c r="I19" s="9"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="39">
         <v>43306</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="22"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="24">
         <v>43466</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="13">
+      <c r="C21" s="14"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="12">
         <v>1</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="41">
+      <c r="I21" s="9"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="39">
         <v>43474</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="13" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="13">
+      <c r="C22" s="14"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="12">
         <v>1</v>
       </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="41">
+      <c r="I22" s="9"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="39">
         <v>43483</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="24">
         <v>43497</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="14">
+      <c r="C23" s="14"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="13">
         <v>2</v>
       </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="17" t="s">
+      <c r="I23" s="10"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="24">
         <v>43647</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="13">
+      <c r="C24" s="14"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="12">
         <v>1</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="41">
+      <c r="I24" s="9"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="39">
         <v>43675</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="24">
         <v>43678</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="13">
+      <c r="C25" s="14"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="12">
         <v>1</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="41">
+      <c r="I25" s="9"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="39">
         <v>43686</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="13" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="24"/>
+      <c r="B26" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="13">
+      <c r="C26" s="14"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="12">
         <v>1</v>
       </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="41">
+      <c r="I26" s="9"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="39">
         <v>43700</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="24">
         <v>43800</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="13">
+      <c r="C27" s="14"/>
+      <c r="D27" s="12">
         <v>3</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="41" t="s">
+      <c r="E27" s="9"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="39" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="22"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="47">
+      <c r="B28" s="12"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="21"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="24">
         <v>43862</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="22" t="s">
+      <c r="C29" s="14"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="21" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="22"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="25">
+      <c r="B30" s="12"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="21"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="24">
         <v>44531</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="13">
+      <c r="C31" s="14"/>
+      <c r="D31" s="12">
         <v>5</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="22" t="s">
+      <c r="E31" s="9"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="15" t="str">
+      <c r="B32" s="12"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="22"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="25">
+      <c r="H32" s="12"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="21"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="24">
         <v>44593</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="15" t="str">
+      <c r="C33" s="14"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="12">
         <v>1</v>
       </c>
-      <c r="I33" s="10"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="41">
+      <c r="I33" s="9"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="39">
         <v>44603</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="13" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="24"/>
+      <c r="B34" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="15" t="str">
+      <c r="C34" s="14"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="22" t="s">
+      <c r="H34" s="12"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="24">
         <v>44621</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="15" t="str">
+      <c r="C35" s="14"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="22" t="s">
+      <c r="H35" s="12"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="13" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="24"/>
+      <c r="B36" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="15" t="str">
+      <c r="C36" s="14"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="12">
         <v>1</v>
       </c>
-      <c r="I36" s="10"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="41">
+      <c r="I36" s="9"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="39">
         <v>44669</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="24">
         <v>44774</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="15" t="str">
+      <c r="C37" s="14"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="13">
         <v>4</v>
       </c>
-      <c r="I37" s="11"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="17" t="s">
+      <c r="I37" s="10"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-      <c r="B38" s="13" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="24"/>
+      <c r="B38" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="15" t="str">
+      <c r="C38" s="14"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="12">
         <v>3</v>
       </c>
-      <c r="I38" s="10"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="22" t="s">
+      <c r="I38" s="9"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="40" t="s">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="15" t="str">
+      <c r="B39" s="12"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H39" s="13"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="22"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="25">
+      <c r="H39" s="12"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="21"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="24">
         <v>44927</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="15" t="str">
+      <c r="C40" s="14"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="12">
         <v>1</v>
       </c>
-      <c r="I40" s="10"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="41">
+      <c r="I40" s="9"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="39">
         <v>44942</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="24">
         <v>44986</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="15" t="str">
+      <c r="C41" s="14"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="12">
         <v>1</v>
       </c>
-      <c r="I41" s="10"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="41">
+      <c r="I41" s="9"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="39">
         <v>44995</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="15" t="str">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="24"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="22"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="15" t="str">
+      <c r="H42" s="12"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="21"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="24"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H43" s="13"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="22"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="15" t="str">
+      <c r="H43" s="12"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="21"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="24"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H44" s="13"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="22"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="15" t="str">
+      <c r="H44" s="12"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="21"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="24"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H45" s="13"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="22"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="15" t="str">
+      <c r="H45" s="12"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="21"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="24"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H46" s="14"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="17"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="15" t="str">
+      <c r="H46" s="13"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="16"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="24"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="22"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="15" t="str">
+      <c r="H47" s="12"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="21"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="24"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H48" s="13"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="22"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="15" t="str">
+      <c r="H48" s="12"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="21"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="24"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H49" s="13"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="22"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="15" t="str">
+      <c r="H49" s="12"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="21"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="24"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H50" s="13"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="22"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="15" t="str">
+      <c r="H50" s="12"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="21"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="24"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H51" s="13"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="22"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="15" t="str">
+      <c r="H51" s="12"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="21"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="24"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="22"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="15" t="str">
+      <c r="H52" s="12"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="21"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="24"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H53" s="13"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="22"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="15" t="str">
+      <c r="H53" s="12"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="21"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="24"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H54" s="13"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="22"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="15" t="str">
+      <c r="H54" s="12"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="21"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="24"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H55" s="13"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="22"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="15" t="str">
+      <c r="H55" s="12"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="21"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="24"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H56" s="13"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="22"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="15" t="str">
+      <c r="H56" s="12"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="21"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="24"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H57" s="14"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="17"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="25"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="15" t="str">
+      <c r="H57" s="13"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="16"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="24"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H58" s="13"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="22"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="15" t="str">
+      <c r="H58" s="12"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="21"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="24"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H59" s="13"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="22"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="15" t="str">
+      <c r="H59" s="12"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="21"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="24"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H60" s="13"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="22"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="25"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="15" t="str">
+      <c r="H60" s="12"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="21"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="24"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H61" s="13"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="22"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="25"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="15" t="str">
+      <c r="H61" s="12"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="21"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="24"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H62" s="14"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="17"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4460,45 +4578,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="58" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="J1" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -4519,35 +4637,35 @@
       <c r="K2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
         <v>76.554000000000002</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>63.48</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="10">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="9">
         <f>SUM(D3,E4,F4)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="44">
+      <c r="J3" s="41"/>
+      <c r="K3" s="42">
         <f>J4-1</f>
         <v>-1</v>
       </c>
-      <c r="L3" s="45" t="str">
+      <c r="L3" s="43" t="str">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1" t="str">
         <f>IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2))</f>
         <v/>
@@ -4556,985 +4674,985 @@
         <f>IF(ISBLANK(F3),"",VLOOKUP(F3,C7:D66,2))</f>
         <v/>
       </c>
-      <c r="G4" s="36"/>
+      <c r="G4" s="34"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="37" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C6" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="38">
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C7" s="36">
         <v>1</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="34">
         <v>2E-3</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="34">
         <v>0.125</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="K7" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="34" t="s">
+      <c r="L7" s="31" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="38">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C8" s="36">
         <v>2</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="34">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="34">
         <v>0.25</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="34">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="K8" s="46">
+      <c r="K8" s="44">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="L8" s="46">
+      <c r="L8" s="44">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="38">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C9" s="36">
         <v>3</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="34">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="34">
         <v>0.375</v>
       </c>
       <c r="I9" s="1">
         <v>2</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="34">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="K9" s="46">
+      <c r="K9" s="44">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="L9" s="46">
+      <c r="L9" s="44">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="38">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C10" s="36">
         <v>4</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="34">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="34">
         <v>0.5</v>
       </c>
       <c r="I10" s="1">
         <v>3</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="34">
         <v>0.125</v>
       </c>
-      <c r="K10" s="46">
+      <c r="K10" s="44">
         <v>0.125</v>
       </c>
-      <c r="L10" s="46">
+      <c r="L10" s="44">
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="38">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C11" s="36">
         <v>5</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="34">
         <v>0.01</v>
       </c>
       <c r="E11" s="1">
         <v>5</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="34">
         <v>0.625</v>
       </c>
       <c r="I11" s="1">
         <v>4</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="34">
         <v>0.16700000000000001</v>
       </c>
-      <c r="K11" s="46">
+      <c r="K11" s="44">
         <v>0.16700000000000001</v>
       </c>
-      <c r="L11" s="46">
+      <c r="L11" s="44">
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="38">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C12" s="36">
         <v>6</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="34">
         <v>1.2E-2</v>
       </c>
       <c r="E12" s="1">
         <v>6</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="34">
         <v>0.75</v>
       </c>
       <c r="I12" s="1">
         <v>5</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="34">
         <v>0.20800000000000002</v>
       </c>
-      <c r="K12" s="46">
+      <c r="K12" s="44">
         <v>0.20800000000000002</v>
       </c>
-      <c r="L12" s="46">
+      <c r="L12" s="44">
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C13" s="38">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C13" s="36">
         <v>7</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="34">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E13" s="1">
         <v>7</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="34">
         <v>0.875</v>
       </c>
       <c r="I13" s="1">
         <v>6</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="34">
         <v>0.25</v>
       </c>
-      <c r="K13" s="46">
+      <c r="K13" s="44">
         <v>0.25</v>
       </c>
-      <c r="L13" s="46">
+      <c r="L13" s="44">
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="38">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C14" s="36">
         <v>8</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="34">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="E14" s="1">
         <v>8</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="34">
         <v>1</v>
       </c>
       <c r="I14" s="1">
         <v>7</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="34">
         <v>0.29199999999999998</v>
       </c>
-      <c r="K14" s="46">
+      <c r="K14" s="44">
         <v>0.29199999999999998</v>
       </c>
-      <c r="L14" s="46">
+      <c r="L14" s="44">
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="38">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C15" s="36">
         <v>9</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="34">
         <v>1.9000000000000003E-2</v>
       </c>
       <c r="I15" s="1">
         <v>8</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="34">
         <v>0.33299999999999996</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="44">
         <v>0.33299999999999996</v>
       </c>
-      <c r="L15" s="46">
+      <c r="L15" s="44">
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="38">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C16" s="36">
         <v>10</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="34">
         <v>2.1000000000000005E-2</v>
       </c>
       <c r="I16" s="1">
         <v>9</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="34">
         <v>0.37499999999999994</v>
       </c>
-      <c r="K16" s="46">
+      <c r="K16" s="44">
         <v>0.37499999999999994</v>
       </c>
-      <c r="L16" s="46">
+      <c r="L16" s="44">
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C17" s="38">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C17" s="36">
         <v>11</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="34">
         <v>2.3000000000000007E-2</v>
       </c>
       <c r="I17" s="1">
         <v>10</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="34">
         <v>0.41699999999999993</v>
       </c>
-      <c r="K17" s="46">
+      <c r="K17" s="44">
         <v>0.41699999999999993</v>
       </c>
-      <c r="L17" s="46">
+      <c r="L17" s="44">
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="38">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="36">
         <v>12</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="34">
         <v>2.5000000000000008E-2</v>
       </c>
       <c r="G18"/>
       <c r="I18" s="1">
         <v>11</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J18" s="34">
         <v>0.45799999999999991</v>
       </c>
-      <c r="K18" s="46">
+      <c r="K18" s="44">
         <v>0.45799999999999991</v>
       </c>
-      <c r="L18" s="46">
+      <c r="L18" s="44">
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="38">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="36">
         <v>13</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="34">
         <v>2.700000000000001E-2</v>
       </c>
       <c r="G19"/>
       <c r="I19" s="1">
         <v>12</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="34">
         <v>0.49999999999999989</v>
       </c>
-      <c r="K19" s="46">
+      <c r="K19" s="44">
         <v>0.49999999999999989</v>
       </c>
-      <c r="L19" s="46">
+      <c r="L19" s="44">
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="38">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="36">
         <v>14</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="34">
         <v>2.9000000000000012E-2</v>
       </c>
       <c r="G20"/>
       <c r="I20" s="1">
         <v>13</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="34">
         <v>0.54199999999999993</v>
       </c>
-      <c r="K20" s="46">
+      <c r="K20" s="44">
         <v>0.54199999999999993</v>
       </c>
-      <c r="L20" s="46">
+      <c r="L20" s="44">
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="38">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="36">
         <v>15</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="34">
         <v>3.1000000000000014E-2</v>
       </c>
       <c r="G21"/>
       <c r="I21" s="1">
         <v>14</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="34">
         <v>0.58299999999999996</v>
       </c>
-      <c r="K21" s="46">
+      <c r="K21" s="44">
         <v>0.58299999999999996</v>
       </c>
-      <c r="L21" s="46">
+      <c r="L21" s="44">
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="38">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="36">
         <v>16</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="34">
         <v>3.3000000000000015E-2</v>
       </c>
       <c r="G22"/>
       <c r="I22" s="1">
         <v>15</v>
       </c>
-      <c r="J22" s="36">
+      <c r="J22" s="34">
         <v>0.625</v>
       </c>
-      <c r="K22" s="46">
+      <c r="K22" s="44">
         <v>0.625</v>
       </c>
-      <c r="L22" s="46">
+      <c r="L22" s="44">
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="38">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="36">
         <v>17</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="34">
         <v>3.5000000000000017E-2</v>
       </c>
       <c r="G23"/>
       <c r="I23" s="1">
         <v>16</v>
       </c>
-      <c r="J23" s="36">
+      <c r="J23" s="34">
         <v>0.66700000000000004</v>
       </c>
-      <c r="K23" s="46">
+      <c r="K23" s="44">
         <v>0.66700000000000004</v>
       </c>
-      <c r="L23" s="46">
+      <c r="L23" s="44">
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="38">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="36">
         <v>18</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="34">
         <v>3.7000000000000019E-2</v>
       </c>
       <c r="G24"/>
       <c r="I24" s="1">
         <v>17</v>
       </c>
-      <c r="J24" s="36">
+      <c r="J24" s="34">
         <v>0.70800000000000007</v>
       </c>
-      <c r="K24" s="46">
+      <c r="K24" s="44">
         <v>0.70800000000000007</v>
       </c>
-      <c r="L24" s="46">
+      <c r="L24" s="44">
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="38">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="36">
         <v>19</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25" s="34">
         <v>0.04</v>
       </c>
       <c r="G25"/>
       <c r="I25" s="1">
         <v>18</v>
       </c>
-      <c r="J25" s="36">
+      <c r="J25" s="34">
         <v>0.75000000000000011</v>
       </c>
-      <c r="K25" s="46">
+      <c r="K25" s="44">
         <v>0.75000000000000011</v>
       </c>
-      <c r="L25" s="46">
+      <c r="L25" s="44">
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="38">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="36">
         <v>20</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="34">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G26"/>
       <c r="I26" s="1">
         <v>19</v>
       </c>
-      <c r="J26" s="36">
+      <c r="J26" s="34">
         <v>0.79200000000000015</v>
       </c>
-      <c r="K26" s="46">
+      <c r="K26" s="44">
         <v>0.79200000000000015</v>
       </c>
-      <c r="L26" s="46">
+      <c r="L26" s="44">
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="38">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="36">
         <v>21</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="34">
         <v>4.4000000000000004E-2</v>
       </c>
       <c r="G27"/>
       <c r="I27" s="1">
         <v>20</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J27" s="34">
         <v>0.83300000000000018</v>
       </c>
-      <c r="K27" s="46">
+      <c r="K27" s="44">
         <v>0.83300000000000018</v>
       </c>
-      <c r="L27" s="46">
+      <c r="L27" s="44">
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="38">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="36">
         <v>22</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="34">
         <v>4.6000000000000006E-2</v>
       </c>
       <c r="G28"/>
       <c r="I28" s="1">
         <v>21</v>
       </c>
-      <c r="J28" s="36">
+      <c r="J28" s="34">
         <v>0.87500000000000022</v>
       </c>
-      <c r="K28" s="46">
+      <c r="K28" s="44">
         <v>0.87500000000000022</v>
       </c>
-      <c r="L28" s="46">
+      <c r="L28" s="44">
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="38">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="36">
         <v>23</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D29" s="34">
         <v>4.8000000000000008E-2</v>
       </c>
       <c r="G29"/>
       <c r="I29" s="1">
         <v>22</v>
       </c>
-      <c r="J29" s="36">
+      <c r="J29" s="34">
         <v>0.91700000000000026</v>
       </c>
-      <c r="K29" s="46">
+      <c r="K29" s="44">
         <v>0.91700000000000026</v>
       </c>
-      <c r="L29" s="46">
+      <c r="L29" s="44">
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="38">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="36">
         <v>24</v>
       </c>
-      <c r="D30" s="36">
+      <c r="D30" s="34">
         <v>5.000000000000001E-2</v>
       </c>
       <c r="G30"/>
       <c r="I30" s="1">
         <v>23</v>
       </c>
-      <c r="J30" s="36">
+      <c r="J30" s="34">
         <v>0.9580000000000003</v>
       </c>
-      <c r="K30" s="46">
+      <c r="K30" s="44">
         <v>0.9580000000000003</v>
       </c>
-      <c r="L30" s="46">
+      <c r="L30" s="44">
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="38">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="36">
         <v>25</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="34">
         <v>5.2000000000000011E-2</v>
       </c>
       <c r="G31"/>
       <c r="I31" s="1">
         <v>24</v>
       </c>
-      <c r="J31" s="36">
+      <c r="J31" s="34">
         <v>1.0000000000000002</v>
       </c>
-      <c r="K31" s="46">
+      <c r="K31" s="44">
         <v>1.0000000000000002</v>
       </c>
-      <c r="L31" s="46">
+      <c r="L31" s="44">
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="38">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="36">
         <v>26</v>
       </c>
-      <c r="D32" s="36">
+      <c r="D32" s="34">
         <v>5.4000000000000013E-2</v>
       </c>
       <c r="G32"/>
       <c r="I32" s="1">
         <v>25</v>
       </c>
-      <c r="J32" s="36">
+      <c r="J32" s="34">
         <v>1.0420000000000003</v>
       </c>
-      <c r="K32" s="46">
+      <c r="K32" s="44">
         <v>1.0420000000000003</v>
       </c>
-      <c r="L32" s="46">
+      <c r="L32" s="44">
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="38">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="36">
         <v>27</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="34">
         <v>5.6000000000000015E-2</v>
       </c>
       <c r="G33"/>
       <c r="I33" s="1">
         <v>26</v>
       </c>
-      <c r="J33" s="36">
+      <c r="J33" s="34">
         <v>1.0830000000000002</v>
       </c>
-      <c r="K33" s="46">
+      <c r="K33" s="44">
         <v>1.0830000000000002</v>
       </c>
-      <c r="L33" s="46">
+      <c r="L33" s="44">
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="38">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="36">
         <v>28</v>
       </c>
-      <c r="D34" s="36">
+      <c r="D34" s="34">
         <v>5.8000000000000017E-2</v>
       </c>
       <c r="G34"/>
       <c r="I34" s="1">
         <v>27</v>
       </c>
-      <c r="J34" s="36">
+      <c r="J34" s="34">
         <v>1.1250000000000002</v>
       </c>
-      <c r="K34" s="46">
+      <c r="K34" s="44">
         <v>1.1250000000000002</v>
       </c>
-      <c r="L34" s="46">
+      <c r="L34" s="44">
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="38">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="36">
         <v>29</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="34">
         <v>6.0000000000000019E-2</v>
       </c>
       <c r="G35"/>
       <c r="I35" s="1">
         <v>28</v>
       </c>
-      <c r="J35" s="36">
+      <c r="J35" s="34">
         <v>1.1670000000000003</v>
       </c>
-      <c r="K35" s="46">
+      <c r="K35" s="44">
         <v>1.1670000000000003</v>
       </c>
-      <c r="L35" s="46">
+      <c r="L35" s="44">
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="38">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="36">
         <v>30</v>
       </c>
-      <c r="D36" s="36">
+      <c r="D36" s="34">
         <v>6.200000000000002E-2</v>
       </c>
       <c r="G36"/>
       <c r="I36" s="1">
         <v>29</v>
       </c>
-      <c r="J36" s="36">
+      <c r="J36" s="34">
         <v>1.2080000000000002</v>
       </c>
-      <c r="K36" s="46">
+      <c r="K36" s="44">
         <v>1.2080000000000002</v>
       </c>
-      <c r="L36" s="46">
+      <c r="L36" s="44">
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="38">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="36">
         <v>31</v>
       </c>
-      <c r="D37" s="36">
+      <c r="D37" s="34">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="G37"/>
       <c r="I37" s="1">
         <v>30</v>
       </c>
-      <c r="J37" s="36">
+      <c r="J37" s="34">
         <v>1.2500000000000002</v>
       </c>
-      <c r="K37" s="46">
+      <c r="K37" s="44">
         <v>1.2500000000000002</v>
       </c>
-      <c r="L37" s="46">
+      <c r="L37" s="44">
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="38">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="36">
         <v>32</v>
       </c>
-      <c r="D38" s="36">
+      <c r="D38" s="34">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="38">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="36">
         <v>33</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D39" s="34">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="38">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="36">
         <v>34</v>
       </c>
-      <c r="D40" s="36">
+      <c r="D40" s="34">
         <v>7.1000000000000008E-2</v>
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="38">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="36">
         <v>35</v>
       </c>
-      <c r="D41" s="36">
+      <c r="D41" s="34">
         <v>7.3000000000000009E-2</v>
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="38">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="36">
         <v>36</v>
       </c>
-      <c r="D42" s="36">
+      <c r="D42" s="34">
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="38">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="36">
         <v>37</v>
       </c>
-      <c r="D43" s="36">
+      <c r="D43" s="34">
         <v>7.7000000000000013E-2</v>
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="38">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="36">
         <v>38</v>
       </c>
-      <c r="D44" s="36">
+      <c r="D44" s="34">
         <v>7.9000000000000015E-2</v>
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="38">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="36">
         <v>39</v>
       </c>
-      <c r="D45" s="36">
+      <c r="D45" s="34">
         <v>8.1000000000000016E-2</v>
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="38">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="36">
         <v>40</v>
       </c>
-      <c r="D46" s="36">
+      <c r="D46" s="34">
         <v>8.3000000000000018E-2</v>
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="38">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="36">
         <v>41</v>
       </c>
-      <c r="D47" s="36">
+      <c r="D47" s="34">
         <v>8.500000000000002E-2</v>
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="38">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="36">
         <v>42</v>
       </c>
-      <c r="D48" s="36">
+      <c r="D48" s="34">
         <v>8.7000000000000022E-2</v>
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="38">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="36">
         <v>43</v>
       </c>
-      <c r="D49" s="36">
+      <c r="D49" s="34">
         <v>0.09</v>
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="38">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="36">
         <v>44</v>
       </c>
-      <c r="D50" s="36">
+      <c r="D50" s="34">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="38">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="36">
         <v>45</v>
       </c>
-      <c r="D51" s="36">
+      <c r="D51" s="34">
         <v>9.4E-2</v>
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="38">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="36">
         <v>46</v>
       </c>
-      <c r="D52" s="36">
+      <c r="D52" s="34">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="38">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="36">
         <v>47</v>
       </c>
-      <c r="D53" s="36">
+      <c r="D53" s="34">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="38">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="36">
         <v>48</v>
       </c>
-      <c r="D54" s="36">
+      <c r="D54" s="34">
         <v>0.1</v>
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="38">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="36">
         <v>49</v>
       </c>
-      <c r="D55" s="36">
+      <c r="D55" s="34">
         <v>0.10200000000000001</v>
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="38">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="36">
         <v>50</v>
       </c>
-      <c r="D56" s="36">
+      <c r="D56" s="34">
         <v>0.10400000000000001</v>
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="38">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="36">
         <v>51</v>
       </c>
-      <c r="D57" s="36">
+      <c r="D57" s="34">
         <v>0.10600000000000001</v>
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="38">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="36">
         <v>52</v>
       </c>
-      <c r="D58" s="36">
+      <c r="D58" s="34">
         <v>0.10800000000000001</v>
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="38">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="36">
         <v>53</v>
       </c>
-      <c r="D59" s="36">
+      <c r="D59" s="34">
         <v>0.11000000000000001</v>
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="38">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="36">
         <v>54</v>
       </c>
-      <c r="D60" s="36">
+      <c r="D60" s="34">
         <v>0.11200000000000002</v>
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="38">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="36">
         <v>55</v>
       </c>
-      <c r="D61" s="36">
+      <c r="D61" s="34">
         <v>0.115</v>
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="38">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="36">
         <v>56</v>
       </c>
-      <c r="D62" s="36">
+      <c r="D62" s="34">
         <v>0.11700000000000001</v>
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="38">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="36">
         <v>57</v>
       </c>
-      <c r="D63" s="36">
+      <c r="D63" s="34">
         <v>0.11900000000000001</v>
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="38">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="36">
         <v>58</v>
       </c>
-      <c r="D64" s="36">
+      <c r="D64" s="34">
         <v>0.12100000000000001</v>
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="38">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="36">
         <v>59</v>
       </c>
-      <c r="D65" s="36">
+      <c r="D65" s="34">
         <v>0.12300000000000001</v>
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="38">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="36">
         <v>60</v>
       </c>
-      <c r="D66" s="36">
+      <c r="D66" s="34">
         <v>0.125</v>
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/GONZALES, MARY JANE.xlsx
+++ b/NEW HR/GONZALES, MARY JANE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997E08A6-19A8-4A2A-A0F1-04FC084EB05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -261,7 +260,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1170,25 +1169,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K90" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K90" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1200,25 +1199,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K62" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K62" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1525,34 +1524,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A79" activePane="bottomLeft"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="K81" sqref="K81"/>
+      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1573,7 +1572,7 @@
       <c r="J2" s="49"/>
       <c r="K2" s="50"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1591,7 +1590,7 @@
       <c r="J3" s="51"/>
       <c r="K3" s="52"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1613,7 +1612,7 @@
       <c r="J4" s="49"/>
       <c r="K4" s="50"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1621,7 +1620,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1634,7 +1633,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="47" t="s">
@@ -1651,7 +1650,7 @@
       <c r="J7" s="47"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1686,7 +1685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1710,7 +1709,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>55</v>
       </c>
@@ -1725,7 +1724,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -1745,7 +1744,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>43132</v>
       </c>
@@ -1765,7 +1764,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="39"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>43160</v>
       </c>
@@ -1785,7 +1784,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>43191</v>
       </c>
@@ -1805,7 +1804,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>43221</v>
       </c>
@@ -1825,7 +1824,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>43252</v>
       </c>
@@ -1845,7 +1844,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="39"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>43282</v>
       </c>
@@ -1865,7 +1864,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="39"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>43313</v>
       </c>
@@ -1885,7 +1884,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>43344</v>
       </c>
@@ -1905,7 +1904,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>43374</v>
       </c>
@@ -1925,7 +1924,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>43405</v>
       </c>
@@ -1945,7 +1944,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>43435</v>
       </c>
@@ -1969,7 +1968,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
         <v>56</v>
       </c>
@@ -1987,7 +1986,7 @@
       <c r="J23" s="13"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>43466</v>
       </c>
@@ -2007,7 +2006,7 @@
       <c r="J24" s="13"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>43497</v>
       </c>
@@ -2027,7 +2026,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>43525</v>
       </c>
@@ -2047,7 +2046,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>43556</v>
       </c>
@@ -2067,7 +2066,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>43586</v>
       </c>
@@ -2087,7 +2086,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="39"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>43617</v>
       </c>
@@ -2107,7 +2106,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>43647</v>
       </c>
@@ -2127,7 +2126,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>43678</v>
       </c>
@@ -2147,7 +2146,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>43709</v>
       </c>
@@ -2167,7 +2166,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>43739</v>
       </c>
@@ -2187,7 +2186,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>43770</v>
       </c>
@@ -2207,7 +2206,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>43800</v>
       </c>
@@ -2233,7 +2232,7 @@
         <v>43802</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="12" t="s">
         <v>63</v>
@@ -2255,7 +2254,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
         <v>57</v>
       </c>
@@ -2273,7 +2272,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>43831</v>
       </c>
@@ -2293,7 +2292,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>43862</v>
       </c>
@@ -2313,7 +2312,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>43891</v>
       </c>
@@ -2333,7 +2332,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>43922</v>
       </c>
@@ -2353,7 +2352,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>43952</v>
       </c>
@@ -2373,7 +2372,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>43983</v>
       </c>
@@ -2393,7 +2392,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>44013</v>
       </c>
@@ -2413,7 +2412,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>44044</v>
       </c>
@@ -2433,7 +2432,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>44075</v>
       </c>
@@ -2453,7 +2452,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>44105</v>
       </c>
@@ -2473,7 +2472,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>44136</v>
       </c>
@@ -2493,7 +2492,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <v>44166</v>
       </c>
@@ -2517,7 +2516,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38" t="s">
         <v>58</v>
       </c>
@@ -2535,7 +2534,7 @@
       <c r="J50" s="13"/>
       <c r="K50" s="16"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>44197</v>
       </c>
@@ -2555,7 +2554,7 @@
       <c r="J51" s="13"/>
       <c r="K51" s="16"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>44228</v>
       </c>
@@ -2575,7 +2574,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>44256</v>
       </c>
@@ -2595,7 +2594,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>44287</v>
       </c>
@@ -2615,7 +2614,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>44317</v>
       </c>
@@ -2635,7 +2634,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>44348</v>
       </c>
@@ -2655,7 +2654,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>44378</v>
       </c>
@@ -2675,7 +2674,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>44409</v>
       </c>
@@ -2695,7 +2694,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>44440</v>
       </c>
@@ -2715,7 +2714,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>44470</v>
       </c>
@@ -2735,7 +2734,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>44501</v>
       </c>
@@ -2755,7 +2754,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>44531</v>
       </c>
@@ -2779,7 +2778,7 @@
       <c r="J62" s="13"/>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="38" t="s">
         <v>34</v>
       </c>
@@ -2797,7 +2796,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>44562</v>
       </c>
@@ -2817,7 +2816,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
         <v>44593</v>
       </c>
@@ -2837,7 +2836,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="39"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
         <v>44621</v>
       </c>
@@ -2863,7 +2862,7 @@
         <v>44631</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <v>44652</v>
       </c>
@@ -2883,7 +2882,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <v>44682</v>
       </c>
@@ -2903,7 +2902,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>44713</v>
       </c>
@@ -2923,7 +2922,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <v>44743</v>
       </c>
@@ -2943,7 +2942,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <v>44774</v>
       </c>
@@ -2963,7 +2962,7 @@
       <c r="J71" s="13"/>
       <c r="K71" s="16"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <v>44805</v>
       </c>
@@ -2983,7 +2982,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <v>44835</v>
       </c>
@@ -3003,7 +3002,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
         <v>44866</v>
       </c>
@@ -3029,7 +3028,7 @@
         <v>44891</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="24"/>
       <c r="B75" s="12" t="s">
         <v>53</v>
@@ -3051,7 +3050,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="24">
         <v>44896</v>
       </c>
@@ -3071,7 +3070,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
         <v>72</v>
       </c>
@@ -3089,7 +3088,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
         <v>44927</v>
       </c>
@@ -3109,7 +3108,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="45">
         <v>44958</v>
       </c>
@@ -3129,7 +3128,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="45">
         <v>44986</v>
       </c>
@@ -3153,7 +3152,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="45">
         <v>45017</v>
       </c>
@@ -3171,7 +3170,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="45">
         <v>45047</v>
       </c>
@@ -3189,7 +3188,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="45">
         <v>45078</v>
       </c>
@@ -3207,7 +3206,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="45">
         <v>45108</v>
       </c>
@@ -3225,7 +3224,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="45">
         <v>45139</v>
       </c>
@@ -3243,7 +3242,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="45">
         <v>45170</v>
       </c>
@@ -3261,7 +3260,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="45">
         <v>45200</v>
       </c>
@@ -3279,7 +3278,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="45">
         <v>45231</v>
       </c>
@@ -3297,7 +3296,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="45">
         <v>45261</v>
       </c>
@@ -3315,7 +3314,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="45">
         <v>45292</v>
       </c>
@@ -3348,10 +3347,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3374,34 +3373,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A37" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A37" activePane="bottomLeft"/>
       <selection activeCell="K6" sqref="K6"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -3422,7 +3421,7 @@
       <c r="J2" s="49"/>
       <c r="K2" s="50"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -3440,7 +3439,7 @@
       <c r="J3" s="51"/>
       <c r="K3" s="52"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -3462,7 +3461,7 @@
       <c r="J4" s="49"/>
       <c r="K4" s="50"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -3470,7 +3469,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -3483,7 +3482,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="47" t="s">
@@ -3500,7 +3499,7 @@
       <c r="J7" s="47"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3535,7 +3534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -3554,12 +3553,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>35.479999999999997</v>
+        <v>34.479999999999997</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>55</v>
       </c>
@@ -3574,7 +3573,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -3595,7 +3594,7 @@
         <v>43108</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>43132</v>
       </c>
@@ -3616,7 +3615,7 @@
         <v>43143</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>43221</v>
       </c>
@@ -3637,7 +3636,7 @@
         <v>43228</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="12" t="s">
         <v>35</v>
@@ -3656,7 +3655,7 @@
         <v>43235</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="12" t="s">
         <v>35</v>
@@ -3675,7 +3674,7 @@
         <v>43250</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>43252</v>
       </c>
@@ -3696,7 +3695,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>43282</v>
       </c>
@@ -3717,7 +3716,7 @@
         <v>43290</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="12" t="s">
         <v>35</v>
@@ -3736,7 +3735,7 @@
         <v>43299</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="12" t="s">
         <v>35</v>
@@ -3755,7 +3754,7 @@
         <v>43306</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>56</v>
       </c>
@@ -3770,7 +3769,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>43466</v>
       </c>
@@ -3791,7 +3790,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="12" t="s">
         <v>35</v>
@@ -3810,7 +3809,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>43497</v>
       </c>
@@ -3831,7 +3830,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>43647</v>
       </c>
@@ -3852,7 +3851,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>43678</v>
       </c>
@@ -3873,7 +3872,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="12" t="s">
         <v>35</v>
@@ -3892,7 +3891,7 @@
         <v>43700</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>43800</v>
       </c>
@@ -3913,7 +3912,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="38" t="s">
         <v>57</v>
       </c>
@@ -3928,7 +3927,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>43862</v>
       </c>
@@ -3947,7 +3946,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="38" t="s">
         <v>58</v>
       </c>
@@ -3962,7 +3961,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>44531</v>
       </c>
@@ -3983,7 +3982,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="38" t="s">
         <v>34</v>
       </c>
@@ -4001,7 +4000,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>44593</v>
       </c>
@@ -4025,7 +4024,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
       <c r="B34" s="12" t="s">
         <v>36</v>
@@ -4045,7 +4044,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>44621</v>
       </c>
@@ -4067,7 +4066,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="12" t="s">
         <v>35</v>
@@ -4089,7 +4088,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>44774</v>
       </c>
@@ -4113,7 +4112,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="12" t="s">
         <v>40</v>
@@ -4135,7 +4134,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="38" t="s">
         <v>72</v>
       </c>
@@ -4153,7 +4152,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>44927</v>
       </c>
@@ -4177,7 +4176,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>44986</v>
       </c>
@@ -4201,9 +4200,13 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
-      <c r="B42" s="12"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="24">
+        <v>45047</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="C42" s="14"/>
       <c r="D42" s="12"/>
       <c r="E42" s="9"/>
@@ -4212,12 +4215,16 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H42" s="12"/>
+      <c r="H42" s="12">
+        <v>1</v>
+      </c>
       <c r="I42" s="9"/>
       <c r="J42" s="12"/>
-      <c r="K42" s="21"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K42" s="39">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
       <c r="B43" s="12"/>
       <c r="C43" s="14"/>
@@ -4233,7 +4240,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>
       <c r="B44" s="12"/>
       <c r="C44" s="14"/>
@@ -4249,7 +4256,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="12"/>
       <c r="C45" s="14"/>
@@ -4265,7 +4272,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
@@ -4281,7 +4288,7 @@
       <c r="J46" s="13"/>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
@@ -4297,7 +4304,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
@@ -4313,7 +4320,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
@@ -4329,7 +4336,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -4345,7 +4352,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -4361,7 +4368,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -4377,7 +4384,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -4393,7 +4400,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -4409,7 +4416,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -4425,7 +4432,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -4441,7 +4448,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -4457,7 +4464,7 @@
       <c r="J57" s="13"/>
       <c r="K57" s="16"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="12"/>
       <c r="C58" s="14"/>
@@ -4473,7 +4480,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
       <c r="B59" s="12"/>
       <c r="C59" s="14"/>
@@ -4489,7 +4496,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
       <c r="B60" s="12"/>
       <c r="C60" s="14"/>
@@ -4505,7 +4512,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="B61" s="12"/>
       <c r="C61" s="14"/>
@@ -4521,7 +4528,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -4539,23 +4546,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4578,28 +4585,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="55" t="s">
         <v>32</v>
       </c>
@@ -4612,7 +4619,7 @@
       <c r="K1" s="56"/>
       <c r="L1" s="56"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -4641,7 +4648,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>76.554000000000002</v>
       </c>
@@ -4665,7 +4672,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1" t="str">
         <f>IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2))</f>
         <v/>
@@ -4680,10 +4687,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="35" t="s">
         <v>28</v>
       </c>
@@ -4703,7 +4710,7 @@
       <c r="K6" s="57"/>
       <c r="L6" s="57"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -4729,7 +4736,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -4755,7 +4762,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -4781,7 +4788,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -4807,7 +4814,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -4833,7 +4840,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -4859,7 +4866,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -4885,7 +4892,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -4911,7 +4918,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -4931,7 +4938,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -4951,7 +4958,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -4971,7 +4978,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -4992,7 +4999,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -5013,7 +5020,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -5034,7 +5041,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -5055,7 +5062,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -5076,7 +5083,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -5097,7 +5104,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -5118,7 +5125,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -5139,7 +5146,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -5160,7 +5167,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -5181,7 +5188,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -5202,7 +5209,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -5223,7 +5230,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -5244,7 +5251,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -5265,7 +5272,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -5286,7 +5293,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -5307,7 +5314,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -5328,7 +5335,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -5349,7 +5356,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -5370,7 +5377,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -5391,7 +5398,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -5400,7 +5407,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -5409,7 +5416,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -5418,7 +5425,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -5427,7 +5434,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -5436,7 +5443,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -5445,7 +5452,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -5454,7 +5461,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -5463,7 +5470,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -5472,7 +5479,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -5481,7 +5488,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -5490,7 +5497,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -5499,7 +5506,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -5508,7 +5515,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -5517,7 +5524,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -5526,7 +5533,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -5535,7 +5542,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -5544,7 +5551,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -5553,7 +5560,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -5562,7 +5569,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -5571,7 +5578,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -5580,7 +5587,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -5589,7 +5596,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -5598,7 +5605,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -5607,7 +5614,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -5616,7 +5623,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -5625,7 +5632,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -5634,7 +5641,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -5643,7 +5650,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -5652,7 +5659,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/GONZALES, MARY JANE.xlsx
+++ b/NEW HR/GONZALES, MARY JANE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1530,7 +1530,7 @@
   </sheetPr>
   <dimension ref="A2:K90"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
       <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
@@ -3379,10 +3379,10 @@
   </sheetPr>
   <dimension ref="A2:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A37" activePane="bottomLeft"/>
       <selection activeCell="K6" sqref="K6"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3553,7 +3553,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>34.479999999999997</v>
+        <v>33.479999999999997</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4225,8 +4225,12 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" s="12"/>
+      <c r="A43" s="24">
+        <v>45078</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="C43" s="14"/>
       <c r="D43" s="12"/>
       <c r="E43" s="9"/>
@@ -4235,10 +4239,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H43" s="12"/>
+      <c r="H43" s="12">
+        <v>1</v>
+      </c>
       <c r="I43" s="9"/>
       <c r="J43" s="12"/>
-      <c r="K43" s="21"/>
+      <c r="K43" s="39">
+        <v>45083</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>
@@ -4546,17 +4554,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">

--- a/NEW HR/GONZALES, MARY JANE.xlsx
+++ b/NEW HR/GONZALES, MARY JANE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6019891B-165C-4341-93C4-EB5BB64E4CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="75">
   <si>
     <t>PERIOD</t>
   </si>
@@ -255,12 +256,18 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>VL(10-0-0)</t>
+  </si>
+  <si>
+    <t>6/9-23/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -480,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -612,9 +619,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1152,7 +1156,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1169,25 +1173,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K90" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K90" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1199,25 +1203,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K62" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K62" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1524,95 +1528,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
+      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="48"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="49"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="49"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="50"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1620,7 +1624,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1633,24 +1637,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47" t="s">
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1685,7 +1689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1694,7 +1698,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>47.5</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1704,12 +1708,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>82.5</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>55</v>
       </c>
@@ -1724,7 +1728,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -1744,7 +1748,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>43132</v>
       </c>
@@ -1764,7 +1768,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="39"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>43160</v>
       </c>
@@ -1784,7 +1788,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>43191</v>
       </c>
@@ -1804,7 +1808,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>43221</v>
       </c>
@@ -1824,7 +1828,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>43252</v>
       </c>
@@ -1844,7 +1848,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="39"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>43282</v>
       </c>
@@ -1864,7 +1868,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="39"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>43313</v>
       </c>
@@ -1884,7 +1888,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <v>43344</v>
       </c>
@@ -1904,7 +1908,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <v>43374</v>
       </c>
@@ -1924,7 +1928,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>43405</v>
       </c>
@@ -1944,7 +1948,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>43435</v>
       </c>
@@ -1968,7 +1972,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="38" t="s">
         <v>56</v>
       </c>
@@ -1986,7 +1990,7 @@
       <c r="J23" s="13"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>43466</v>
       </c>
@@ -2006,7 +2010,7 @@
       <c r="J24" s="13"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <v>43497</v>
       </c>
@@ -2026,7 +2030,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>43525</v>
       </c>
@@ -2046,7 +2050,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>43556</v>
       </c>
@@ -2066,7 +2070,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>43586</v>
       </c>
@@ -2086,7 +2090,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="39"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <v>43617</v>
       </c>
@@ -2106,7 +2110,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <v>43647</v>
       </c>
@@ -2126,7 +2130,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>43678</v>
       </c>
@@ -2146,7 +2150,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <v>43709</v>
       </c>
@@ -2166,7 +2170,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <v>43739</v>
       </c>
@@ -2186,7 +2190,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="24">
         <v>43770</v>
       </c>
@@ -2206,7 +2210,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>43800</v>
       </c>
@@ -2232,7 +2236,7 @@
         <v>43802</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
       <c r="B36" s="12" t="s">
         <v>63</v>
@@ -2254,7 +2258,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="38" t="s">
         <v>57</v>
       </c>
@@ -2272,7 +2276,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="24">
         <v>43831</v>
       </c>
@@ -2292,7 +2296,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
         <v>43862</v>
       </c>
@@ -2312,7 +2316,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <v>43891</v>
       </c>
@@ -2332,7 +2336,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <v>43922</v>
       </c>
@@ -2352,7 +2356,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <v>43952</v>
       </c>
@@ -2372,7 +2376,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24">
         <v>43983</v>
       </c>
@@ -2392,7 +2396,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <v>44013</v>
       </c>
@@ -2412,7 +2416,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24">
         <v>44044</v>
       </c>
@@ -2432,7 +2436,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
         <v>44075</v>
       </c>
@@ -2452,7 +2456,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24">
         <v>44105</v>
       </c>
@@ -2472,7 +2476,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="24">
         <v>44136</v>
       </c>
@@ -2492,7 +2496,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="24">
         <v>44166</v>
       </c>
@@ -2516,7 +2520,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="38" t="s">
         <v>58</v>
       </c>
@@ -2534,7 +2538,7 @@
       <c r="J50" s="13"/>
       <c r="K50" s="16"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <v>44197</v>
       </c>
@@ -2554,7 +2558,7 @@
       <c r="J51" s="13"/>
       <c r="K51" s="16"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <v>44228</v>
       </c>
@@ -2574,7 +2578,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24">
         <v>44256</v>
       </c>
@@ -2594,7 +2598,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24">
         <v>44287</v>
       </c>
@@ -2614,7 +2618,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <v>44317</v>
       </c>
@@ -2634,7 +2638,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <v>44348</v>
       </c>
@@ -2654,7 +2658,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="24">
         <v>44378</v>
       </c>
@@ -2674,7 +2678,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24">
         <v>44409</v>
       </c>
@@ -2694,7 +2698,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24">
         <v>44440</v>
       </c>
@@ -2714,7 +2718,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <v>44470</v>
       </c>
@@ -2734,7 +2738,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24">
         <v>44501</v>
       </c>
@@ -2754,7 +2758,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
         <v>44531</v>
       </c>
@@ -2778,7 +2782,7 @@
       <c r="J62" s="13"/>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="38" t="s">
         <v>34</v>
       </c>
@@ -2796,7 +2800,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="24">
         <v>44562</v>
       </c>
@@ -2816,7 +2820,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="24">
         <v>44593</v>
       </c>
@@ -2836,7 +2840,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="39"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="24">
         <v>44621</v>
       </c>
@@ -2862,7 +2866,7 @@
         <v>44631</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="24">
         <v>44652</v>
       </c>
@@ -2882,7 +2886,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="24">
         <v>44682</v>
       </c>
@@ -2902,7 +2906,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="24">
         <v>44713</v>
       </c>
@@ -2922,7 +2926,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="24">
         <v>44743</v>
       </c>
@@ -2942,7 +2946,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="24">
         <v>44774</v>
       </c>
@@ -2962,7 +2966,7 @@
       <c r="J71" s="13"/>
       <c r="K71" s="16"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="24">
         <v>44805</v>
       </c>
@@ -2982,7 +2986,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="24">
         <v>44835</v>
       </c>
@@ -3002,7 +3006,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="24">
         <v>44866</v>
       </c>
@@ -3028,7 +3032,7 @@
         <v>44891</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="24"/>
       <c r="B75" s="12" t="s">
         <v>53</v>
@@ -3050,7 +3054,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="24">
         <v>44896</v>
       </c>
@@ -3070,7 +3074,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="38" t="s">
         <v>72</v>
       </c>
@@ -3088,9 +3092,9 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="24">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="14">
@@ -3108,29 +3112,29 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="45">
-        <v>44958</v>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="24">
+        <v>44985</v>
       </c>
       <c r="B79" s="21"/>
       <c r="C79" s="14">
         <v>1.25</v>
       </c>
-      <c r="D79" s="46"/>
+      <c r="D79" s="45"/>
       <c r="E79" s="9"/>
       <c r="F79" s="21"/>
       <c r="G79" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H79" s="46"/>
+      <c r="H79" s="45"/>
       <c r="I79" s="9"/>
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="45">
-        <v>44986</v>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="24">
+        <v>45016</v>
       </c>
       <c r="B80" s="21" t="s">
         <v>36</v>
@@ -3138,196 +3142,208 @@
       <c r="C80" s="14">
         <v>1.25</v>
       </c>
-      <c r="D80" s="46"/>
+      <c r="D80" s="45"/>
       <c r="E80" s="9"/>
       <c r="F80" s="21"/>
       <c r="G80" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H80" s="46"/>
+      <c r="H80" s="45"/>
       <c r="I80" s="9"/>
       <c r="J80" s="12"/>
       <c r="K80" s="39">
         <v>45009</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="45">
-        <v>45017</v>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="24">
+        <v>45046</v>
       </c>
       <c r="B81" s="21"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="46"/>
+      <c r="C81" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D81" s="45"/>
       <c r="E81" s="9"/>
       <c r="F81" s="21"/>
-      <c r="G81" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H81" s="46"/>
+      <c r="G81" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H81" s="45"/>
       <c r="I81" s="9"/>
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="45">
-        <v>45047</v>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="24">
+        <v>45077</v>
       </c>
       <c r="B82" s="21"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="46"/>
+      <c r="C82" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D82" s="45"/>
       <c r="E82" s="9"/>
       <c r="F82" s="21"/>
-      <c r="G82" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H82" s="46"/>
+      <c r="G82" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H82" s="45"/>
       <c r="I82" s="9"/>
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="45">
-        <v>45078</v>
-      </c>
-      <c r="B83" s="21"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="46"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="24">
+        <v>45107</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C83" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D83" s="45">
+        <v>10</v>
+      </c>
       <c r="E83" s="9"/>
       <c r="F83" s="21"/>
-      <c r="G83" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H83" s="46"/>
+      <c r="G83" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H83" s="45"/>
       <c r="I83" s="9"/>
       <c r="J83" s="12"/>
-      <c r="K83" s="21"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="45">
-        <v>45108</v>
+      <c r="K83" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="24">
+        <v>45138</v>
       </c>
       <c r="B84" s="21"/>
       <c r="C84" s="14"/>
-      <c r="D84" s="46"/>
+      <c r="D84" s="45"/>
       <c r="E84" s="9"/>
       <c r="F84" s="21"/>
       <c r="G84" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H84" s="46"/>
+      <c r="H84" s="45"/>
       <c r="I84" s="9"/>
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="45">
-        <v>45139</v>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="24">
+        <v>45169</v>
       </c>
       <c r="B85" s="21"/>
       <c r="C85" s="14"/>
-      <c r="D85" s="46"/>
+      <c r="D85" s="45"/>
       <c r="E85" s="9"/>
       <c r="F85" s="21"/>
       <c r="G85" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H85" s="46"/>
+      <c r="H85" s="45"/>
       <c r="I85" s="9"/>
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="45">
-        <v>45170</v>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="24">
+        <v>45199</v>
       </c>
       <c r="B86" s="21"/>
       <c r="C86" s="14"/>
-      <c r="D86" s="46"/>
+      <c r="D86" s="45"/>
       <c r="E86" s="9"/>
       <c r="F86" s="21"/>
       <c r="G86" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H86" s="46"/>
+      <c r="H86" s="45"/>
       <c r="I86" s="9"/>
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="45">
-        <v>45200</v>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="24">
+        <v>45230</v>
       </c>
       <c r="B87" s="21"/>
       <c r="C87" s="14"/>
-      <c r="D87" s="46"/>
+      <c r="D87" s="45"/>
       <c r="E87" s="9"/>
       <c r="F87" s="21"/>
       <c r="G87" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H87" s="46"/>
+      <c r="H87" s="45"/>
       <c r="I87" s="9"/>
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="45">
-        <v>45231</v>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="24">
+        <v>45260</v>
       </c>
       <c r="B88" s="21"/>
       <c r="C88" s="14"/>
-      <c r="D88" s="46"/>
+      <c r="D88" s="45"/>
       <c r="E88" s="9"/>
       <c r="F88" s="21"/>
       <c r="G88" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H88" s="46"/>
+      <c r="H88" s="45"/>
       <c r="I88" s="9"/>
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="45">
-        <v>45261</v>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="24">
+        <v>45291</v>
       </c>
       <c r="B89" s="21"/>
       <c r="C89" s="14"/>
-      <c r="D89" s="46"/>
+      <c r="D89" s="45"/>
       <c r="E89" s="9"/>
       <c r="F89" s="21"/>
       <c r="G89" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H89" s="46"/>
+      <c r="H89" s="45"/>
       <c r="I89" s="9"/>
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="45">
-        <v>45292</v>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="24">
+        <v>45322</v>
       </c>
       <c r="B90" s="21"/>
       <c r="C90" s="14"/>
-      <c r="D90" s="46"/>
+      <c r="D90" s="45"/>
       <c r="E90" s="9"/>
       <c r="F90" s="21"/>
       <c r="G90" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H90" s="46"/>
+      <c r="H90" s="45"/>
       <c r="I90" s="9"/>
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
@@ -3347,10 +3363,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3373,95 +3389,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K62"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A37" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A37" activePane="bottomLeft"/>
       <selection activeCell="K6" sqref="K6"/>
       <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="48"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="49"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="49"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="50"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -3469,7 +3485,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -3482,24 +3498,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47" t="s">
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3534,7 +3550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -3558,7 +3574,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>55</v>
       </c>
@@ -3573,7 +3589,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -3594,7 +3610,7 @@
         <v>43108</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>43132</v>
       </c>
@@ -3615,7 +3631,7 @@
         <v>43143</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>43221</v>
       </c>
@@ -3636,7 +3652,7 @@
         <v>43228</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="12" t="s">
         <v>35</v>
@@ -3655,7 +3671,7 @@
         <v>43235</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="12" t="s">
         <v>35</v>
@@ -3674,7 +3690,7 @@
         <v>43250</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>43252</v>
       </c>
@@ -3695,7 +3711,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>43282</v>
       </c>
@@ -3716,7 +3732,7 @@
         <v>43290</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
       <c r="B18" s="12" t="s">
         <v>35</v>
@@ -3735,7 +3751,7 @@
         <v>43299</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
       <c r="B19" s="12" t="s">
         <v>35</v>
@@ -3754,7 +3770,7 @@
         <v>43306</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="38" t="s">
         <v>56</v>
       </c>
@@ -3769,7 +3785,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>43466</v>
       </c>
@@ -3790,7 +3806,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
       <c r="B22" s="12" t="s">
         <v>35</v>
@@ -3809,7 +3825,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
         <v>43497</v>
       </c>
@@ -3830,7 +3846,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>43647</v>
       </c>
@@ -3851,7 +3867,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <v>43678</v>
       </c>
@@ -3872,7 +3888,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="24"/>
       <c r="B26" s="12" t="s">
         <v>35</v>
@@ -3891,7 +3907,7 @@
         <v>43700</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>43800</v>
       </c>
@@ -3912,7 +3928,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="38" t="s">
         <v>57</v>
       </c>
@@ -3927,7 +3943,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <v>43862</v>
       </c>
@@ -3946,7 +3962,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="38" t="s">
         <v>58</v>
       </c>
@@ -3961,7 +3977,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>44531</v>
       </c>
@@ -3982,7 +3998,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="38" t="s">
         <v>34</v>
       </c>
@@ -4000,7 +4016,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <v>44593</v>
       </c>
@@ -4024,7 +4040,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="24"/>
       <c r="B34" s="12" t="s">
         <v>36</v>
@@ -4044,7 +4060,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>44621</v>
       </c>
@@ -4066,7 +4082,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
       <c r="B36" s="12" t="s">
         <v>35</v>
@@ -4088,7 +4104,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <v>44774</v>
       </c>
@@ -4112,7 +4128,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="24"/>
       <c r="B38" s="12" t="s">
         <v>40</v>
@@ -4134,7 +4150,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="38" t="s">
         <v>72</v>
       </c>
@@ -4152,7 +4168,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <v>44927</v>
       </c>
@@ -4176,7 +4192,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <v>44986</v>
       </c>
@@ -4200,7 +4216,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <v>45047</v>
       </c>
@@ -4224,7 +4240,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24">
         <v>45078</v>
       </c>
@@ -4248,7 +4264,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24"/>
       <c r="B44" s="12"/>
       <c r="C44" s="14"/>
@@ -4264,7 +4280,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
       <c r="B45" s="12"/>
       <c r="C45" s="14"/>
@@ -4280,7 +4296,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
@@ -4296,7 +4312,7 @@
       <c r="J46" s="13"/>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
@@ -4312,7 +4328,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="24"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
@@ -4328,7 +4344,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="24"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
@@ -4344,7 +4360,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="24"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -4360,7 +4376,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="24"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -4376,7 +4392,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="24"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -4392,7 +4408,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -4408,7 +4424,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -4424,7 +4440,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="24"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -4440,7 +4456,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="24"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -4456,7 +4472,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="24"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -4472,7 +4488,7 @@
       <c r="J57" s="13"/>
       <c r="K57" s="16"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24"/>
       <c r="B58" s="12"/>
       <c r="C58" s="14"/>
@@ -4488,7 +4504,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24"/>
       <c r="B59" s="12"/>
       <c r="C59" s="14"/>
@@ -4504,7 +4520,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24"/>
       <c r="B60" s="12"/>
       <c r="C60" s="14"/>
@@ -4520,7 +4536,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24"/>
       <c r="B61" s="12"/>
       <c r="C61" s="14"/>
@@ -4536,7 +4552,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="24"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -4554,23 +4570,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4593,41 +4609,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="55" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="J1" s="56" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="J1" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -4656,7 +4672,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>76.554000000000002</v>
       </c>
@@ -4680,7 +4696,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1" t="str">
         <f>IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2))</f>
         <v/>
@@ -4695,10 +4711,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="35" t="s">
         <v>28</v>
       </c>
@@ -4711,14 +4727,14 @@
       <c r="F6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -4744,7 +4760,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -4770,7 +4786,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -4796,7 +4812,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -4822,7 +4838,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -4848,7 +4864,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -4874,7 +4890,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -4900,7 +4916,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -4926,7 +4942,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -4946,7 +4962,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -4966,7 +4982,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -4986,7 +5002,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -5007,7 +5023,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -5028,7 +5044,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -5049,7 +5065,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -5070,7 +5086,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -5091,7 +5107,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -5112,7 +5128,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -5133,7 +5149,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -5154,7 +5170,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -5175,7 +5191,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -5196,7 +5212,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -5217,7 +5233,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -5238,7 +5254,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -5259,7 +5275,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -5280,7 +5296,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -5301,7 +5317,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -5322,7 +5338,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -5343,7 +5359,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -5364,7 +5380,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -5385,7 +5401,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -5406,7 +5422,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -5415,7 +5431,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -5424,7 +5440,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -5433,7 +5449,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -5442,7 +5458,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -5451,7 +5467,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -5460,7 +5476,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -5469,7 +5485,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -5478,7 +5494,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -5487,7 +5503,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -5496,7 +5512,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -5505,7 +5521,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -5514,7 +5530,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -5523,7 +5539,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -5532,7 +5548,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -5541,7 +5557,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -5550,7 +5566,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -5559,7 +5575,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -5568,7 +5584,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -5577,7 +5593,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -5586,7 +5602,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -5595,7 +5611,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -5604,7 +5620,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -5613,7 +5629,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -5622,7 +5638,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -5631,7 +5647,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -5640,7 +5656,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -5649,7 +5665,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -5658,7 +5674,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -5667,7 +5683,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/GONZALES, MARY JANE.xlsx
+++ b/NEW HR/GONZALES, MARY JANE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6019891B-165C-4341-93C4-EB5BB64E4CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E6C8B4-642C-42DA-94F7-5322458158D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="75">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1535,9 +1535,9 @@
   <dimension ref="A2:K90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A76" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
+      <selection pane="bottomLeft" activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1698,7 +1698,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>47.5</v>
+        <v>57.5</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3200,15 +3200,11 @@
       <c r="A83" s="24">
         <v>45107</v>
       </c>
-      <c r="B83" s="21" t="s">
-        <v>73</v>
-      </c>
+      <c r="B83" s="21"/>
       <c r="C83" s="14">
         <v>1.25</v>
       </c>
-      <c r="D83" s="45">
-        <v>10</v>
-      </c>
+      <c r="D83" s="45"/>
       <c r="E83" s="9"/>
       <c r="F83" s="21"/>
       <c r="G83" s="14">
@@ -3218,15 +3214,15 @@
       <c r="H83" s="45"/>
       <c r="I83" s="9"/>
       <c r="J83" s="12"/>
-      <c r="K83" s="21" t="s">
-        <v>74</v>
-      </c>
+      <c r="K83" s="21"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="24">
         <v>45138</v>
       </c>
-      <c r="B84" s="21"/>
+      <c r="B84" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="C84" s="14"/>
       <c r="D84" s="45"/>
       <c r="E84" s="9"/>
@@ -3238,7 +3234,9 @@
       <c r="H84" s="45"/>
       <c r="I84" s="9"/>
       <c r="J84" s="12"/>
-      <c r="K84" s="21"/>
+      <c r="K84" s="39">
+        <v>45117</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="24">
@@ -3398,7 +3396,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3696" topLeftCell="A37" activePane="bottomLeft"/>
       <selection activeCell="K6" sqref="K6"/>
-      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
+      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3559,7 +3557,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>68.554000000000002</v>
+        <v>58.554000000000002</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -4266,9 +4264,13 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24"/>
-      <c r="B44" s="12"/>
+      <c r="B44" s="21" t="s">
+        <v>73</v>
+      </c>
       <c r="C44" s="14"/>
-      <c r="D44" s="12"/>
+      <c r="D44" s="12">
+        <v>10</v>
+      </c>
       <c r="E44" s="9"/>
       <c r="F44" s="12"/>
       <c r="G44" s="14" t="str">
@@ -4278,7 +4280,9 @@
       <c r="H44" s="12"/>
       <c r="I44" s="9"/>
       <c r="J44" s="12"/>
-      <c r="K44" s="21"/>
+      <c r="K44" s="21" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
@@ -4570,17 +4574,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">

--- a/NEW HR/GONZALES, MARY JANE.xlsx
+++ b/NEW HR/GONZALES, MARY JANE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E6C8B4-642C-42DA-94F7-5322458158D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="77">
   <si>
     <t>PERIOD</t>
   </si>
@@ -262,12 +261,18 @@
   </si>
   <si>
     <t>6/9-23/2023</t>
+  </si>
+  <si>
+    <t>9/14,15/2023</t>
+  </si>
+  <si>
+    <t>9/25,26/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1156,7 +1161,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1173,25 +1178,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K90" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K90" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1203,25 +1208,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K62" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K62" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1528,34 +1533,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A79" activePane="bottomLeft"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="K85" sqref="K85"/>
+      <selection pane="bottomLeft" activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1576,7 +1581,7 @@
       <c r="J2" s="48"/>
       <c r="K2" s="49"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1594,7 +1599,7 @@
       <c r="J3" s="50"/>
       <c r="K3" s="51"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1616,7 +1621,7 @@
       <c r="J4" s="48"/>
       <c r="K4" s="49"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1624,7 +1629,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1637,7 +1642,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="46" t="s">
@@ -1654,7 +1659,7 @@
       <c r="J7" s="46"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1689,7 +1694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1698,7 +1703,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>57.5</v>
+        <v>61.25</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1708,12 +1713,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>82.5</v>
+        <v>86.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>55</v>
       </c>
@@ -1728,7 +1733,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -1748,7 +1753,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>43132</v>
       </c>
@@ -1768,7 +1773,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="39"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>43160</v>
       </c>
@@ -1788,7 +1793,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>43191</v>
       </c>
@@ -1808,7 +1813,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>43221</v>
       </c>
@@ -1828,7 +1833,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>43252</v>
       </c>
@@ -1848,7 +1853,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="39"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>43282</v>
       </c>
@@ -1868,7 +1873,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="39"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>43313</v>
       </c>
@@ -1888,7 +1893,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>43344</v>
       </c>
@@ -1908,7 +1913,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>43374</v>
       </c>
@@ -1928,7 +1933,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>43405</v>
       </c>
@@ -1948,7 +1953,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>43435</v>
       </c>
@@ -1972,7 +1977,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
         <v>56</v>
       </c>
@@ -1990,7 +1995,7 @@
       <c r="J23" s="13"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>43466</v>
       </c>
@@ -2010,7 +2015,7 @@
       <c r="J24" s="13"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>43497</v>
       </c>
@@ -2030,7 +2035,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>43525</v>
       </c>
@@ -2050,7 +2055,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>43556</v>
       </c>
@@ -2070,7 +2075,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>43586</v>
       </c>
@@ -2090,7 +2095,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="39"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>43617</v>
       </c>
@@ -2110,7 +2115,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>43647</v>
       </c>
@@ -2130,7 +2135,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>43678</v>
       </c>
@@ -2150,7 +2155,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>43709</v>
       </c>
@@ -2170,7 +2175,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>43739</v>
       </c>
@@ -2190,7 +2195,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>43770</v>
       </c>
@@ -2210,7 +2215,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>43800</v>
       </c>
@@ -2236,7 +2241,7 @@
         <v>43802</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="12" t="s">
         <v>63</v>
@@ -2258,7 +2263,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
         <v>57</v>
       </c>
@@ -2276,7 +2281,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>43831</v>
       </c>
@@ -2296,7 +2301,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>43862</v>
       </c>
@@ -2316,7 +2321,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>43891</v>
       </c>
@@ -2336,7 +2341,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>43922</v>
       </c>
@@ -2356,7 +2361,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>43952</v>
       </c>
@@ -2376,7 +2381,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>43983</v>
       </c>
@@ -2396,7 +2401,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>44013</v>
       </c>
@@ -2416,7 +2421,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>44044</v>
       </c>
@@ -2436,7 +2441,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>44075</v>
       </c>
@@ -2456,7 +2461,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>44105</v>
       </c>
@@ -2476,7 +2481,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>44136</v>
       </c>
@@ -2496,7 +2501,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <v>44166</v>
       </c>
@@ -2520,7 +2525,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38" t="s">
         <v>58</v>
       </c>
@@ -2538,7 +2543,7 @@
       <c r="J50" s="13"/>
       <c r="K50" s="16"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>44197</v>
       </c>
@@ -2558,7 +2563,7 @@
       <c r="J51" s="13"/>
       <c r="K51" s="16"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>44228</v>
       </c>
@@ -2578,7 +2583,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>44256</v>
       </c>
@@ -2598,7 +2603,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>44287</v>
       </c>
@@ -2618,7 +2623,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>44317</v>
       </c>
@@ -2638,7 +2643,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>44348</v>
       </c>
@@ -2658,7 +2663,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>44378</v>
       </c>
@@ -2678,7 +2683,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>44409</v>
       </c>
@@ -2698,7 +2703,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>44440</v>
       </c>
@@ -2718,7 +2723,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>44470</v>
       </c>
@@ -2738,7 +2743,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>44501</v>
       </c>
@@ -2758,7 +2763,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>44531</v>
       </c>
@@ -2782,7 +2787,7 @@
       <c r="J62" s="13"/>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="38" t="s">
         <v>34</v>
       </c>
@@ -2800,7 +2805,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>44562</v>
       </c>
@@ -2820,7 +2825,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
         <v>44593</v>
       </c>
@@ -2840,7 +2845,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="39"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
         <v>44621</v>
       </c>
@@ -2866,7 +2871,7 @@
         <v>44631</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <v>44652</v>
       </c>
@@ -2886,7 +2891,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <v>44682</v>
       </c>
@@ -2906,7 +2911,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>44713</v>
       </c>
@@ -2926,7 +2931,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <v>44743</v>
       </c>
@@ -2946,7 +2951,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <v>44774</v>
       </c>
@@ -2966,7 +2971,7 @@
       <c r="J71" s="13"/>
       <c r="K71" s="16"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <v>44805</v>
       </c>
@@ -2986,7 +2991,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <v>44835</v>
       </c>
@@ -3006,7 +3011,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
         <v>44866</v>
       </c>
@@ -3032,7 +3037,7 @@
         <v>44891</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="24"/>
       <c r="B75" s="12" t="s">
         <v>53</v>
@@ -3054,7 +3059,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="24">
         <v>44896</v>
       </c>
@@ -3074,7 +3079,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
         <v>72</v>
       </c>
@@ -3092,7 +3097,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
         <v>44957</v>
       </c>
@@ -3112,7 +3117,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>44985</v>
       </c>
@@ -3132,7 +3137,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>45016</v>
       </c>
@@ -3156,7 +3161,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>45046</v>
       </c>
@@ -3176,7 +3181,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <v>45077</v>
       </c>
@@ -3196,7 +3201,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
         <v>45107</v>
       </c>
@@ -3216,20 +3221,22 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="24">
         <v>45138</v>
       </c>
       <c r="B84" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C84" s="14"/>
+      <c r="C84" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="45"/>
       <c r="E84" s="9"/>
       <c r="F84" s="21"/>
-      <c r="G84" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="45"/>
       <c r="I84" s="9"/>
@@ -3238,43 +3245,47 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
         <v>45169</v>
       </c>
       <c r="B85" s="21"/>
-      <c r="C85" s="14"/>
+      <c r="C85" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="45"/>
       <c r="E85" s="9"/>
       <c r="F85" s="21"/>
-      <c r="G85" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="45"/>
       <c r="I85" s="9"/>
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
         <v>45199</v>
       </c>
       <c r="B86" s="21"/>
-      <c r="C86" s="14"/>
+      <c r="C86" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="45"/>
       <c r="E86" s="9"/>
       <c r="F86" s="21"/>
-      <c r="G86" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="45"/>
       <c r="I86" s="9"/>
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
         <v>45230</v>
       </c>
@@ -3292,7 +3303,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
         <v>45260</v>
       </c>
@@ -3310,7 +3321,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="24">
         <v>45291</v>
       </c>
@@ -3328,7 +3339,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="24">
         <v>45322</v>
       </c>
@@ -3361,10 +3372,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3387,34 +3398,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A37" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A37" activePane="bottomLeft"/>
       <selection activeCell="K6" sqref="K6"/>
-      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
+      <selection pane="bottomLeft" activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -3435,7 +3446,7 @@
       <c r="J2" s="48"/>
       <c r="K2" s="49"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -3453,7 +3464,7 @@
       <c r="J3" s="50"/>
       <c r="K3" s="51"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -3475,7 +3486,7 @@
       <c r="J4" s="48"/>
       <c r="K4" s="49"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -3483,7 +3494,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -3496,7 +3507,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="46" t="s">
@@ -3513,7 +3524,7 @@
       <c r="J7" s="46"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3548,7 +3559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -3567,12 +3578,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>33.479999999999997</v>
+        <v>28.479999999999997</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>55</v>
       </c>
@@ -3587,7 +3598,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -3608,7 +3619,7 @@
         <v>43108</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>43132</v>
       </c>
@@ -3629,7 +3640,7 @@
         <v>43143</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>43221</v>
       </c>
@@ -3650,7 +3661,7 @@
         <v>43228</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="12" t="s">
         <v>35</v>
@@ -3669,7 +3680,7 @@
         <v>43235</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="12" t="s">
         <v>35</v>
@@ -3688,7 +3699,7 @@
         <v>43250</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>43252</v>
       </c>
@@ -3709,7 +3720,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>43282</v>
       </c>
@@ -3730,7 +3741,7 @@
         <v>43290</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="12" t="s">
         <v>35</v>
@@ -3749,7 +3760,7 @@
         <v>43299</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="12" t="s">
         <v>35</v>
@@ -3768,7 +3779,7 @@
         <v>43306</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>56</v>
       </c>
@@ -3783,7 +3794,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>43466</v>
       </c>
@@ -3804,7 +3815,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="12" t="s">
         <v>35</v>
@@ -3823,7 +3834,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>43497</v>
       </c>
@@ -3844,7 +3855,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>43647</v>
       </c>
@@ -3865,7 +3876,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>43678</v>
       </c>
@@ -3886,7 +3897,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="12" t="s">
         <v>35</v>
@@ -3905,7 +3916,7 @@
         <v>43700</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>43800</v>
       </c>
@@ -3926,7 +3937,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="38" t="s">
         <v>57</v>
       </c>
@@ -3941,7 +3952,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>43862</v>
       </c>
@@ -3960,7 +3971,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="38" t="s">
         <v>58</v>
       </c>
@@ -3975,7 +3986,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>44531</v>
       </c>
@@ -3996,7 +4007,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="38" t="s">
         <v>34</v>
       </c>
@@ -4014,7 +4025,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>44593</v>
       </c>
@@ -4038,7 +4049,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
       <c r="B34" s="12" t="s">
         <v>36</v>
@@ -4058,7 +4069,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>44621</v>
       </c>
@@ -4080,7 +4091,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="12" t="s">
         <v>35</v>
@@ -4102,7 +4113,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>44774</v>
       </c>
@@ -4126,7 +4137,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="12" t="s">
         <v>40</v>
@@ -4148,7 +4159,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="38" t="s">
         <v>72</v>
       </c>
@@ -4166,7 +4177,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>44927</v>
       </c>
@@ -4190,7 +4201,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>44986</v>
       </c>
@@ -4214,7 +4225,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>45047</v>
       </c>
@@ -4238,7 +4249,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>45078</v>
       </c>
@@ -4262,7 +4273,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>
       <c r="B44" s="21" t="s">
         <v>73</v>
@@ -4284,9 +4295,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
-      <c r="B45" s="12"/>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="24">
+        <v>45170</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="C45" s="14"/>
       <c r="D45" s="12"/>
       <c r="E45" s="9"/>
@@ -4295,14 +4310,20 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H45" s="12"/>
+      <c r="H45" s="12">
+        <v>1</v>
+      </c>
       <c r="I45" s="9"/>
       <c r="J45" s="12"/>
-      <c r="K45" s="21"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K45" s="39">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
-      <c r="B46" s="13"/>
+      <c r="B46" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="C46" s="14"/>
       <c r="D46" s="13"/>
       <c r="E46" s="10"/>
@@ -4311,14 +4332,20 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H46" s="13"/>
+      <c r="H46" s="13">
+        <v>2</v>
+      </c>
       <c r="I46" s="10"/>
       <c r="J46" s="13"/>
-      <c r="K46" s="16"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K46" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24"/>
-      <c r="B47" s="13"/>
+      <c r="B47" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="C47" s="14"/>
       <c r="D47" s="13"/>
       <c r="E47" s="10"/>
@@ -4327,12 +4354,16 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H47" s="12"/>
+      <c r="H47" s="12">
+        <v>2</v>
+      </c>
       <c r="I47" s="9"/>
       <c r="J47" s="12"/>
-      <c r="K47" s="21"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K47" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
@@ -4348,7 +4379,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
@@ -4364,7 +4395,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -4380,7 +4411,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -4396,7 +4427,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -4412,7 +4443,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -4428,7 +4459,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -4444,7 +4475,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -4460,7 +4491,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -4476,7 +4507,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -4492,7 +4523,7 @@
       <c r="J57" s="13"/>
       <c r="K57" s="16"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="12"/>
       <c r="C58" s="14"/>
@@ -4508,7 +4539,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
       <c r="B59" s="12"/>
       <c r="C59" s="14"/>
@@ -4524,7 +4555,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
       <c r="B60" s="12"/>
       <c r="C60" s="14"/>
@@ -4540,7 +4571,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="B61" s="12"/>
       <c r="C61" s="14"/>
@@ -4556,7 +4587,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -4587,10 +4618,10 @@
     <mergeCell ref="J3:K3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4613,28 +4644,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="54" t="s">
         <v>32</v>
       </c>
@@ -4647,7 +4678,7 @@
       <c r="K1" s="55"/>
       <c r="L1" s="55"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -4676,7 +4707,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>76.554000000000002</v>
       </c>
@@ -4700,7 +4731,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1" t="str">
         <f>IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2))</f>
         <v/>
@@ -4715,10 +4746,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="35" t="s">
         <v>28</v>
       </c>
@@ -4738,7 +4769,7 @@
       <c r="K6" s="56"/>
       <c r="L6" s="56"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -4764,7 +4795,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -4790,7 +4821,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -4816,7 +4847,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -4842,7 +4873,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -4868,7 +4899,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -4894,7 +4925,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -4920,7 +4951,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -4946,7 +4977,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -4966,7 +4997,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -4986,7 +5017,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -5006,7 +5037,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -5027,7 +5058,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -5048,7 +5079,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -5069,7 +5100,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -5090,7 +5121,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -5111,7 +5142,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -5132,7 +5163,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -5153,7 +5184,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -5174,7 +5205,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -5195,7 +5226,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -5216,7 +5247,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -5237,7 +5268,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -5258,7 +5289,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -5279,7 +5310,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -5300,7 +5331,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -5321,7 +5352,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -5342,7 +5373,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -5363,7 +5394,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -5384,7 +5415,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -5405,7 +5436,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -5426,7 +5457,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -5435,7 +5466,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -5444,7 +5475,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -5453,7 +5484,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -5462,7 +5493,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -5471,7 +5502,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -5480,7 +5511,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -5489,7 +5520,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -5498,7 +5529,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -5507,7 +5538,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -5516,7 +5547,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -5525,7 +5556,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -5534,7 +5565,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -5543,7 +5574,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -5552,7 +5583,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -5561,7 +5592,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -5570,7 +5601,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -5579,7 +5610,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -5588,7 +5619,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -5597,7 +5628,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -5606,7 +5637,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -5615,7 +5646,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -5624,7 +5655,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -5633,7 +5664,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -5642,7 +5673,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -5651,7 +5682,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -5660,7 +5691,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -5669,7 +5700,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -5678,7 +5709,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -5687,7 +5718,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
